--- a/storage/app/public/form.xlsx
+++ b/storage/app/public/form.xlsx
@@ -123,10 +123,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +445,7 @@
     <col min="16" max="16" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -491,8 +494,13 @@
       <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -511,226 +519,264 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
